--- a/other_data/Fitting_Distance.xlsx
+++ b/other_data/Fitting_Distance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nct20\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nct20\Documents\GitHub\objectTracking\other_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4116F97C-06F4-48BD-ABF2-1499EE5EB8CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A1F7D9F-5050-4E98-8C1D-6A8A93B20F16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8093" xr2:uid="{D0A18A06-30B0-422E-9A1B-02E8FFF3498F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>w</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>distance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gosa[%]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1404,15 +1408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18687DFC-648F-4D13-A54B-432FDF839DE4}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1428,8 +1432,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1446,8 +1453,12 @@
       <c r="E2">
         <v>99.9</v>
       </c>
+      <c r="F2">
+        <f>ABS(1-(E2/A2))*100</f>
+        <v>9.9999999999988987E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>200</v>
       </c>
@@ -1464,8 +1475,12 @@
       <c r="E3">
         <v>149.80000000000001</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="1">ABS(1-(E3/A3))*100</f>
+        <v>25.099999999999987</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1482,8 +1497,12 @@
       <c r="E4">
         <v>242.6</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>19.133333333333336</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>400</v>
       </c>
@@ -1500,8 +1519,12 @@
       <c r="E5">
         <v>351.3</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>12.175000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1518,8 +1541,12 @@
       <c r="E6">
         <v>473.6</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.2799999999999958</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>600</v>
       </c>
@@ -1536,8 +1563,12 @@
       <c r="E7">
         <v>623.1</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.8499999999999979</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>700</v>
       </c>
@@ -1554,8 +1585,12 @@
       <c r="E8">
         <v>813.4</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>16.199999999999992</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>800</v>
       </c>
@@ -1572,8 +1607,12 @@
       <c r="E9">
         <v>949.7</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>18.712499999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>900</v>
       </c>
@@ -1590,8 +1629,12 @@
       <c r="E10">
         <v>1179.3</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>31.033333333333335</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -1607,6 +1650,10 @@
       </c>
       <c r="E11">
         <v>1442.6</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>44.259999999999991</v>
       </c>
     </row>
   </sheetData>
